--- a/Bronnen/Zoetermeer_Informatie_Activiteiten_Voorzieningen.xlsx
+++ b/Bronnen/Zoetermeer_Informatie_Activiteiten_Voorzieningen.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a37e11fd9cabfd6a/Bureaublad/Peet verwijder map/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rogie\OneDrive\Bureaublad\Stage map\Bronnen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="11_B70867B919AEADE6EF7C99EDFABF30F791ACFAF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC5C76AA-4495-4BC0-A09B-E5BC814BD585}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4A9A22-7E83-431E-B075-511602604068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alle informatie" sheetId="1" r:id="rId1"/>
-    <sheet name="Bronnen die we gaan gebruiken" sheetId="3" r:id="rId2"/>
+    <sheet name="Bronnen die ik heb getest" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="32" r:id="rId4"/>
-    <pivotCache cacheId="33" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="101">
   <si>
     <t>Type informatie/ activiteiten/ voorzieningen</t>
   </si>
@@ -280,48 +280,6 @@
     <t>RIVM Dataloket</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
-    <t>Column6</t>
-  </si>
-  <si>
-    <t>Column7</t>
-  </si>
-  <si>
-    <t>Column8</t>
-  </si>
-  <si>
-    <t>Column9</t>
-  </si>
-  <si>
-    <t>Column10</t>
-  </si>
-  <si>
-    <t>Column11</t>
-  </si>
-  <si>
-    <t>Column12</t>
-  </si>
-  <si>
-    <t>Column13</t>
-  </si>
-  <si>
-    <t>Column14</t>
-  </si>
-  <si>
     <t>Openbaar?</t>
   </si>
   <si>
@@ -341,6 +299,36 @@
   </si>
   <si>
     <t>Bronnen waarbij de focus is Activiteiten</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Pagina link</t>
+  </si>
+  <si>
+    <t>Toestemming robots.txt</t>
+  </si>
+  <si>
+    <t>Bedrijf toestemming gevraagd</t>
+  </si>
+  <si>
+    <t>https://www.zoetermeerwijzer.nl/</t>
+  </si>
+  <si>
+    <t>Nee</t>
+  </si>
+  <si>
+    <t>https://www.zoetermeerwijzer.nl/is/agenda</t>
+  </si>
+  <si>
+    <t>https://www.inzet-indewijk.nl/evenementen</t>
+  </si>
+  <si>
+    <t>API?</t>
+  </si>
+  <si>
+    <t>Meer dan 1 pagina?</t>
   </si>
 </sst>
 </file>
@@ -415,24 +403,37 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -629,10 +630,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Finn Spee" refreshedDate="45537.49042534722" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="21" xr:uid="{EF9138B0-8B89-4EB2-B1AB-A01553DF31A6}">
   <cacheSource type="worksheet">
@@ -1015,7 +1012,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{63394938-B81C-4663-99C5-E05165867E05}" name="PivotTable1" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{63394938-B81C-4663-99C5-E05165867E05}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A2:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -1088,7 +1085,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A63F6A3-734E-48BB-B9EC-FD00CE997873}" name="PivotTable2" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A63F6A3-734E-48BB-B9EC-FD00CE997873}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A11:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1144,7 +1141,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A481DE8-60F9-4EDA-8678-182EDE5CED66}" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A481DE8-60F9-4EDA-8678-182EDE5CED66}" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:E22" xr:uid="{9A481DE8-60F9-4EDA-8678-182EDE5CED66}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{785D050A-6158-4E1F-98DB-6C9282E0D339}" name="Type informatie/ activiteiten/ voorzieningen"/>
@@ -1158,7 +1155,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0F9BC7A-3670-4023-8B1F-76CA0D402D41}" name="Table3" displayName="Table3" ref="A25:E34" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0F9BC7A-3670-4023-8B1F-76CA0D402D41}" name="Table3" displayName="Table3" ref="A25:E34" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A25:E34" xr:uid="{B0F9BC7A-3670-4023-8B1F-76CA0D402D41}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C602C0F6-4ED2-4F3E-BFBC-A87608C648E7}" name="Extra gevonden bronnen (Vooral cijfers) als we hier in zijn geinteresseert"/>
@@ -1172,25 +1169,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F879B7D4-B9D5-4705-AD7D-8602BE6E99DF}" name="Table4" displayName="Table4" ref="B2:O12" totalsRowShown="0">
-  <autoFilter ref="B2:O12" xr:uid="{F879B7D4-B9D5-4705-AD7D-8602BE6E99DF}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{F63501CD-AD74-4B18-8835-D8A8C48DC0E1}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{CE521302-4672-4C49-92F7-E73CA143C1B1}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{E7C6A90A-AC72-4CF1-B6C0-77D287CD15F7}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{A0B3C680-A2E2-422F-B683-DA7C33061EFC}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{D552D3F0-0F2E-4E5C-B11F-B8ADE14EFD99}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{A86C9328-FA19-4486-BCEA-ACC37B8A21C0}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{8BF33F43-0D1E-42B5-AD1C-AFBC4354E7F5}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{6E477DA5-7FFE-4F75-A5BD-3317DBB08C52}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{F230958B-BCE4-44BF-BE08-91A4B723D0F8}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{DFBC3D89-08DD-4883-8853-CC253480934A}" name="Column10"/>
-    <tableColumn id="11" xr3:uid="{499F9612-D047-42C8-B279-C5B4372CF326}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{8D5C01EE-CFBD-4CB2-A85A-B93D33C8AD65}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{5E77A44D-505E-42A2-B66F-5F3C6872BDDE}" name="Column13"/>
-    <tableColumn id="14" xr3:uid="{235F80EF-6CB9-418E-A4EA-D8E19A2CECB5}" name="Column14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5A945C59-FEA0-4B87-A31F-A320DF6DC6BA}" name="Table2" displayName="Table2" ref="A1:F3" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F3" xr:uid="{5A945C59-FEA0-4B87-A31F-A320DF6DC6BA}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{746AB835-AA65-4C69-8785-3B5C9063150B}" name="Url" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{8830B6E8-3269-4AF7-997A-AAD1B952F902}" name="Pagina link"/>
+    <tableColumn id="3" xr3:uid="{2407BE19-6577-46C7-B7BE-36DE2A9D5D3D}" name="Toestemming robots.txt"/>
+    <tableColumn id="4" xr3:uid="{60367150-ECEF-4275-9B39-6136FB5311C6}" name="Bedrijf toestemming gevraagd"/>
+    <tableColumn id="5" xr3:uid="{80D65D4F-DA27-422E-A87C-0306F57AF5E1}" name="API?"/>
+    <tableColumn id="6" xr3:uid="{3DDB33BE-F497-4FB4-9DA7-313399205861}" name="Meer dan 1 pagina?"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1483,20 +1472,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.28515625" customWidth="1"/>
+    <col min="1" max="1" width="89.33203125" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="144.42578125" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="144.44140625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1527,7 +1516,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1541,7 +1530,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +1547,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1575,7 +1564,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1592,7 +1581,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1609,7 +1598,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1626,7 +1615,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1640,7 +1629,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1654,7 +1643,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1665,7 +1654,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1682,7 +1671,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1699,7 +1688,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1713,7 +1702,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1730,7 +1719,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1744,7 +1733,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1755,7 +1744,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1772,7 +1761,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1783,7 +1772,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1797,7 +1786,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1811,7 +1800,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1828,24 +1817,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -1856,13 +1845,13 @@
         <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -1873,13 +1862,13 @@
         <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -1890,13 +1879,13 @@
         <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -1907,13 +1896,13 @@
         <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -1924,13 +1913,13 @@
         <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -1938,13 +1927,13 @@
         <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -1952,13 +1941,13 @@
         <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -1966,26 +1955,26 @@
         <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
         <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>104</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2004,67 +1993,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95D6978-5DC2-430E-B29A-225C1A471208}">
-  <dimension ref="B2:O2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="10" width="11" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="10" width="11" customWidth="1"/>
     <col min="11" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>84</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
         <v>85</v>
       </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
         <v>96</v>
       </c>
-      <c r="O2" t="s">
-        <v>97</v>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{6CF89E1A-4DA1-45D4-8E60-A6102BD8A1AA}"/>
+    <hyperlink ref="B2" r:id="rId2" tooltip="https://www.zoetermeerwijzer.nl/is/agenda" xr:uid="{9730936D-C852-4061-8108-E8E1223C4068}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{EEE98501-8915-4B34-B32B-80021478C0DE}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{86AACCA6-8B65-43D2-87C0-50A44E3A9742}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2077,119 +2094,118 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>21</v>
       </c>
     </row>
